--- a/idades.xlsx
+++ b/idades.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A97"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A101" sqref="A101:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,112 +745,127 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>111</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>115</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>118</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>119</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/idades.xlsx
+++ b/idades.xlsx
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +866,11 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
